--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1384743098694381</v>
+        <v>0.1184146901506048</v>
       </c>
       <c r="C2">
-        <v>0.544038543149965</v>
+        <v>0.5185973060008381</v>
       </c>
       <c r="D2">
-        <v>0.5007399185888791</v>
+        <v>0.4691159408045538</v>
       </c>
       <c r="E2">
-        <v>0.7076297892181187</v>
+        <v>0.6849203901217672</v>
       </c>
       <c r="F2">
-        <v>0.7201445889718615</v>
+        <v>0.698284046247675</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2102217207496708</v>
+        <v>0.1872890445127373</v>
       </c>
       <c r="C3">
-        <v>0.6111521062883321</v>
+        <v>0.5754152234511226</v>
       </c>
       <c r="D3">
-        <v>0.6571385326248702</v>
+        <v>0.6110775347743189</v>
       </c>
       <c r="E3">
-        <v>0.8106408160368377</v>
+        <v>0.7817144841784108</v>
       </c>
       <c r="F3">
-        <v>0.8148767641873285</v>
+        <v>0.7875963862927191</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2074100116106138</v>
+        <v>0.1843166320775897</v>
       </c>
       <c r="C4">
-        <v>0.6718501662131343</v>
+        <v>0.6273081474520239</v>
       </c>
       <c r="D4">
-        <v>0.6254167158420979</v>
+        <v>0.5779702429309931</v>
       </c>
       <c r="E4">
-        <v>0.7908329253654642</v>
+        <v>0.7602435418541831</v>
       </c>
       <c r="F4">
-        <v>0.7970840970294275</v>
+        <v>0.7676788112505872</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3582360644616982</v>
+        <v>0.3221619536241352</v>
       </c>
       <c r="C5">
-        <v>0.6102314032332131</v>
+        <v>0.5655998917628668</v>
       </c>
       <c r="D5">
-        <v>0.5866834046854208</v>
+        <v>0.5382575468002283</v>
       </c>
       <c r="E5">
-        <v>0.7659526125586497</v>
+        <v>0.7336603756509059</v>
       </c>
       <c r="F5">
-        <v>0.710060109768783</v>
+        <v>0.6884521947652315</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2534331702874308</v>
+        <v>0.2262967854219969</v>
       </c>
       <c r="C6">
-        <v>0.5139070256375584</v>
+        <v>0.4712852108734478</v>
       </c>
       <c r="D6">
-        <v>0.3249996255422857</v>
+        <v>0.2956388450555676</v>
       </c>
       <c r="E6">
-        <v>0.5700873841283332</v>
+        <v>0.5437268110508876</v>
       </c>
       <c r="F6">
-        <v>0.5382804450184637</v>
+        <v>0.5185281775945857</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3662819860666667</v>
+        <v>0.3318332233303713</v>
       </c>
       <c r="C7">
-        <v>0.4413915038048231</v>
+        <v>0.399431789294712</v>
       </c>
       <c r="D7">
-        <v>0.3219576598552067</v>
+        <v>0.2898093932768167</v>
       </c>
       <c r="E7">
-        <v>0.5674131297874651</v>
+        <v>0.53833947772462</v>
       </c>
       <c r="F7">
-        <v>0.4596406883159366</v>
+        <v>0.4468359196381605</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3327597216444917</v>
+        <v>0.3032448163457492</v>
       </c>
       <c r="C8">
-        <v>0.4914230796744328</v>
+        <v>0.4442789123723634</v>
       </c>
       <c r="D8">
-        <v>0.3761378384108999</v>
+        <v>0.3348453944406773</v>
       </c>
       <c r="E8">
-        <v>0.6133007732025942</v>
+        <v>0.5786582708651776</v>
       </c>
       <c r="F8">
-        <v>0.5507488990321453</v>
+        <v>0.5227322189947009</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3440356313818721</v>
+        <v>0.3395226469355723</v>
       </c>
       <c r="C9">
-        <v>0.5222551146726263</v>
+        <v>0.4954646948149822</v>
       </c>
       <c r="D9">
-        <v>0.4384991098932265</v>
+        <v>0.3955394669362153</v>
       </c>
       <c r="E9">
-        <v>0.6621926531555802</v>
+        <v>0.6289192849135852</v>
       </c>
       <c r="F9">
-        <v>0.6111423947044204</v>
+        <v>0.5659518799878692</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2982500765282811</v>
+        <v>0.2802560178301312</v>
       </c>
       <c r="C10">
-        <v>0.3883526872687977</v>
+        <v>0.3574868270362884</v>
       </c>
       <c r="D10">
-        <v>0.1801779678251797</v>
+        <v>0.1586788892857869</v>
       </c>
       <c r="E10">
-        <v>0.4244737539886061</v>
+        <v>0.3983451886062977</v>
       </c>
       <c r="F10">
-        <v>0.3308622547394384</v>
+        <v>0.3057635732311509</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3685254937051036</v>
+        <v>0.3351585394422735</v>
       </c>
       <c r="C11">
-        <v>0.4901091855943108</v>
+        <v>0.4364782826832794</v>
       </c>
       <c r="D11">
-        <v>0.4450715940930098</v>
+        <v>0.3756151435636499</v>
       </c>
       <c r="E11">
-        <v>0.6671368630895835</v>
+        <v>0.612874492505317</v>
       </c>
       <c r="F11">
-        <v>0.6217521155798541</v>
+        <v>0.5620860044540215</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1184146901506048</v>
+        <v>0.1872890445127373</v>
       </c>
       <c r="C2">
-        <v>0.5185973060008381</v>
+        <v>0.5754152234511226</v>
       </c>
       <c r="D2">
-        <v>0.4691159408045538</v>
+        <v>0.6110775347743189</v>
       </c>
       <c r="E2">
-        <v>0.6849203901217672</v>
+        <v>0.7817144841784108</v>
       </c>
       <c r="F2">
-        <v>0.698284046247675</v>
+        <v>0.7875963862927191</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1872890445127373</v>
+        <v>0.1843166320775897</v>
       </c>
       <c r="C3">
-        <v>0.5754152234511226</v>
+        <v>0.6273081474520239</v>
       </c>
       <c r="D3">
-        <v>0.6110775347743189</v>
+        <v>0.5779702429309931</v>
       </c>
       <c r="E3">
-        <v>0.7817144841784108</v>
+        <v>0.7602435418541831</v>
       </c>
       <c r="F3">
-        <v>0.7875963862927191</v>
+        <v>0.7676788112505872</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1843166320775897</v>
+        <v>0.3221619536241352</v>
       </c>
       <c r="C4">
-        <v>0.6273081474520239</v>
+        <v>0.5655998917628668</v>
       </c>
       <c r="D4">
-        <v>0.5779702429309931</v>
+        <v>0.5382575468002283</v>
       </c>
       <c r="E4">
-        <v>0.7602435418541831</v>
+        <v>0.7336603756509059</v>
       </c>
       <c r="F4">
-        <v>0.7676788112505872</v>
+        <v>0.6884521947652315</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3221619536241352</v>
+        <v>0.2262967854219969</v>
       </c>
       <c r="C5">
-        <v>0.5655998917628668</v>
+        <v>0.4712852108734478</v>
       </c>
       <c r="D5">
-        <v>0.5382575468002283</v>
+        <v>0.2956388450555676</v>
       </c>
       <c r="E5">
-        <v>0.7336603756509059</v>
+        <v>0.5437268110508876</v>
       </c>
       <c r="F5">
-        <v>0.6884521947652315</v>
+        <v>0.5185281775945857</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2262967854219969</v>
+        <v>0.3318332233303713</v>
       </c>
       <c r="C6">
-        <v>0.4712852108734478</v>
+        <v>0.399431789294712</v>
       </c>
       <c r="D6">
-        <v>0.2956388450555676</v>
+        <v>0.2898093932768167</v>
       </c>
       <c r="E6">
-        <v>0.5437268110508876</v>
+        <v>0.53833947772462</v>
       </c>
       <c r="F6">
-        <v>0.5185281775945857</v>
+        <v>0.4468359196381605</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3318332233303713</v>
+        <v>0.3032448163457492</v>
       </c>
       <c r="C7">
-        <v>0.399431789294712</v>
+        <v>0.4442789123723634</v>
       </c>
       <c r="D7">
-        <v>0.2898093932768167</v>
+        <v>0.3348453944406773</v>
       </c>
       <c r="E7">
-        <v>0.53833947772462</v>
+        <v>0.5786582708651776</v>
       </c>
       <c r="F7">
-        <v>0.4468359196381605</v>
+        <v>0.5227322189947009</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3032448163457492</v>
+        <v>0.3395226469355723</v>
       </c>
       <c r="C8">
-        <v>0.4442789123723634</v>
+        <v>0.4954646948149822</v>
       </c>
       <c r="D8">
-        <v>0.3348453944406773</v>
+        <v>0.3955394669362153</v>
       </c>
       <c r="E8">
-        <v>0.5786582708651776</v>
+        <v>0.6289192849135852</v>
       </c>
       <c r="F8">
-        <v>0.5227322189947009</v>
+        <v>0.5659518799878692</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3395226469355723</v>
+        <v>0.2802560178301312</v>
       </c>
       <c r="C9">
-        <v>0.4954646948149822</v>
+        <v>0.3574868270362884</v>
       </c>
       <c r="D9">
-        <v>0.3955394669362153</v>
+        <v>0.1586788892857869</v>
       </c>
       <c r="E9">
-        <v>0.6289192849135852</v>
+        <v>0.3983451886062977</v>
       </c>
       <c r="F9">
-        <v>0.5659518799878692</v>
+        <v>0.3057635732311509</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2802560178301312</v>
+        <v>0.3351585394422735</v>
       </c>
       <c r="C10">
-        <v>0.3574868270362884</v>
+        <v>0.4364782826832794</v>
       </c>
       <c r="D10">
-        <v>0.1586788892857869</v>
+        <v>0.3756151435636499</v>
       </c>
       <c r="E10">
-        <v>0.3983451886062977</v>
+        <v>0.612874492505317</v>
       </c>
       <c r="F10">
-        <v>0.3057635732311509</v>
+        <v>0.5620860044540215</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3351585394422735</v>
+        <v>0.3270154541542939</v>
       </c>
       <c r="C11">
-        <v>0.4364782826832794</v>
+        <v>0.5200289994386147</v>
       </c>
       <c r="D11">
-        <v>0.3756151435636499</v>
+        <v>0.3676720554669373</v>
       </c>
       <c r="E11">
-        <v>0.612874492505317</v>
+        <v>0.6063596750006858</v>
       </c>
       <c r="F11">
-        <v>0.5620860044540215</v>
+        <v>0.5708906946728048</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1872890445127373</v>
+        <v>0.1184146901506048</v>
       </c>
       <c r="C2">
-        <v>0.5754152234511226</v>
+        <v>0.5185973060008381</v>
       </c>
       <c r="D2">
-        <v>0.6110775347743189</v>
+        <v>0.4691159408045538</v>
       </c>
       <c r="E2">
-        <v>0.7817144841784108</v>
+        <v>0.6849203901217672</v>
       </c>
       <c r="F2">
-        <v>0.7875963862927191</v>
+        <v>0.698284046247675</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1843166320775897</v>
+        <v>0.1872890445127373</v>
       </c>
       <c r="C3">
-        <v>0.6273081474520239</v>
+        <v>0.5754152234511226</v>
       </c>
       <c r="D3">
-        <v>0.5779702429309931</v>
+        <v>0.6110775347743189</v>
       </c>
       <c r="E3">
-        <v>0.7602435418541831</v>
+        <v>0.7817144841784108</v>
       </c>
       <c r="F3">
-        <v>0.7676788112505872</v>
+        <v>0.7875963862927191</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3221619536241352</v>
+        <v>0.1843166320775897</v>
       </c>
       <c r="C4">
-        <v>0.5655998917628668</v>
+        <v>0.6273081474520239</v>
       </c>
       <c r="D4">
-        <v>0.5382575468002283</v>
+        <v>0.5779702429309931</v>
       </c>
       <c r="E4">
-        <v>0.7336603756509059</v>
+        <v>0.7602435418541831</v>
       </c>
       <c r="F4">
-        <v>0.6884521947652315</v>
+        <v>0.7676788112505872</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2262967854219969</v>
+        <v>0.3221619536241352</v>
       </c>
       <c r="C5">
-        <v>0.4712852108734478</v>
+        <v>0.5655998917628668</v>
       </c>
       <c r="D5">
-        <v>0.2956388450555676</v>
+        <v>0.5382575468002283</v>
       </c>
       <c r="E5">
-        <v>0.5437268110508876</v>
+        <v>0.7336603756509059</v>
       </c>
       <c r="F5">
-        <v>0.5185281775945857</v>
+        <v>0.6884521947652315</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3318332233303713</v>
+        <v>0.2262967854219969</v>
       </c>
       <c r="C6">
-        <v>0.399431789294712</v>
+        <v>0.4712852108734478</v>
       </c>
       <c r="D6">
-        <v>0.2898093932768167</v>
+        <v>0.2956388450555676</v>
       </c>
       <c r="E6">
-        <v>0.53833947772462</v>
+        <v>0.5437268110508876</v>
       </c>
       <c r="F6">
-        <v>0.4468359196381605</v>
+        <v>0.5185281775945857</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3032448163457492</v>
+        <v>0.3318332233303713</v>
       </c>
       <c r="C7">
-        <v>0.4442789123723634</v>
+        <v>0.399431789294712</v>
       </c>
       <c r="D7">
-        <v>0.3348453944406773</v>
+        <v>0.2898093932768167</v>
       </c>
       <c r="E7">
-        <v>0.5786582708651776</v>
+        <v>0.53833947772462</v>
       </c>
       <c r="F7">
-        <v>0.5227322189947009</v>
+        <v>0.4468359196381605</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3395226469355723</v>
+        <v>0.3032448163457492</v>
       </c>
       <c r="C8">
-        <v>0.4954646948149822</v>
+        <v>0.4442789123723634</v>
       </c>
       <c r="D8">
-        <v>0.3955394669362153</v>
+        <v>0.3348453944406773</v>
       </c>
       <c r="E8">
-        <v>0.6289192849135852</v>
+        <v>0.5786582708651776</v>
       </c>
       <c r="F8">
-        <v>0.5659518799878692</v>
+        <v>0.5227322189947009</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2802560178301312</v>
+        <v>0.3395226469355723</v>
       </c>
       <c r="C9">
-        <v>0.3574868270362884</v>
+        <v>0.4954646948149822</v>
       </c>
       <c r="D9">
-        <v>0.1586788892857869</v>
+        <v>0.3955394669362153</v>
       </c>
       <c r="E9">
-        <v>0.3983451886062977</v>
+        <v>0.6289192849135852</v>
       </c>
       <c r="F9">
-        <v>0.3057635732311509</v>
+        <v>0.5659518799878692</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3351585394422735</v>
+        <v>0.2802560178301312</v>
       </c>
       <c r="C10">
-        <v>0.4364782826832794</v>
+        <v>0.3574868270362884</v>
       </c>
       <c r="D10">
-        <v>0.3756151435636499</v>
+        <v>0.1586788892857869</v>
       </c>
       <c r="E10">
-        <v>0.612874492505317</v>
+        <v>0.3983451886062977</v>
       </c>
       <c r="F10">
-        <v>0.5620860044540215</v>
+        <v>0.3057635732311509</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3270154541542939</v>
+        <v>0.3351585394422735</v>
       </c>
       <c r="C11">
-        <v>0.5200289994386147</v>
+        <v>0.4364782826832794</v>
       </c>
       <c r="D11">
-        <v>0.3676720554669373</v>
+        <v>0.3756151435636499</v>
       </c>
       <c r="E11">
-        <v>0.6063596750006858</v>
+        <v>0.612874492505317</v>
       </c>
       <c r="F11">
-        <v>0.5708906946728048</v>
+        <v>0.5620860044540215</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
